--- a/Code/Results/Cases/Case_1_135/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_135/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.34869518415827</v>
+        <v>17.42115441905784</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>2.026231400508363</v>
+        <v>3.617217011492461</v>
       </c>
       <c r="E2">
-        <v>23.97713299713353</v>
+        <v>21.31025839262848</v>
       </c>
       <c r="F2">
-        <v>34.35979171545807</v>
+        <v>26.54696424668288</v>
       </c>
       <c r="G2">
-        <v>53.32112446970463</v>
+        <v>35.33876624063006</v>
       </c>
       <c r="H2">
-        <v>13.52210203374836</v>
+        <v>14.14935312997983</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>12.24119502746237</v>
+        <v>9.722047170405057</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>13.42173851066002</v>
+        <v>18.35331766152228</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.26488528994194</v>
+        <v>17.15464674316502</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>2.048743173563734</v>
+        <v>3.638905553447395</v>
       </c>
       <c r="E3">
-        <v>22.93337218447533</v>
+        <v>20.96518470046526</v>
       </c>
       <c r="F3">
-        <v>31.9200814689784</v>
+        <v>25.94044271306036</v>
       </c>
       <c r="G3">
-        <v>49.45675784604773</v>
+        <v>34.0595019567597</v>
       </c>
       <c r="H3">
-        <v>12.79282307177283</v>
+        <v>14.04652690696389</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>11.44097194777581</v>
+        <v>9.514730164091405</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>13.49088263455217</v>
+        <v>18.39138444783763</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.57382122317327</v>
+        <v>16.99269970616383</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>2.066991713543759</v>
+        <v>3.653184789612862</v>
       </c>
       <c r="E4">
-        <v>22.27261874852691</v>
+        <v>20.7493096422299</v>
       </c>
       <c r="F4">
-        <v>30.47014670369547</v>
+        <v>25.57186898515603</v>
       </c>
       <c r="G4">
-        <v>46.99511398197566</v>
+        <v>33.2648307640793</v>
       </c>
       <c r="H4">
-        <v>12.34169785803278</v>
+        <v>13.98785810561196</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>10.92435006066973</v>
+        <v>9.386990808304434</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>13.53840964612043</v>
+        <v>18.41721839459171</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.2859665899755</v>
+        <v>16.92721243692192</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>2.075425057421407</v>
+        <v>3.659244470587948</v>
       </c>
       <c r="E5">
-        <v>21.99850026528054</v>
+        <v>20.66040194806257</v>
       </c>
       <c r="F5">
-        <v>29.86908938720216</v>
+        <v>25.42288579484907</v>
       </c>
       <c r="G5">
-        <v>45.97471386071253</v>
+        <v>32.93929423936728</v>
       </c>
       <c r="H5">
-        <v>12.15717225365435</v>
+        <v>13.9650929322324</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>10.70741630769695</v>
+        <v>9.334896552120913</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>13.55903240572798</v>
+        <v>18.42836582764898</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.23779857071311</v>
+        <v>16.91637137966361</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>2.076882434679375</v>
+        <v>3.660265183277748</v>
       </c>
       <c r="E6">
-        <v>21.9526949125328</v>
+        <v>20.64558435290623</v>
       </c>
       <c r="F6">
-        <v>29.76867637648831</v>
+        <v>25.39822789166722</v>
       </c>
       <c r="G6">
-        <v>45.80686928641583</v>
+        <v>32.88515516649034</v>
       </c>
       <c r="H6">
-        <v>12.12649571356373</v>
+        <v>13.96138234281857</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>10.67100654433453</v>
+        <v>9.326246120286182</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>13.56253202707426</v>
+        <v>18.43025432241594</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.56996407826816</v>
+        <v>16.99181435855889</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>2.067101557521918</v>
+        <v>3.653265539315245</v>
       </c>
       <c r="E7">
-        <v>22.26894132908736</v>
+        <v>20.74811430300517</v>
       </c>
       <c r="F7">
-        <v>30.46208158381099</v>
+        <v>25.56985450032118</v>
       </c>
       <c r="G7">
-        <v>46.98137272224222</v>
+        <v>33.26044651164005</v>
       </c>
       <c r="H7">
-        <v>12.33921183230202</v>
+        <v>13.98754643524373</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>10.92145040930155</v>
+        <v>9.386288309193084</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>13.538682716165</v>
+        <v>18.41736622143781</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.98041117702265</v>
+        <v>17.32896147093782</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>2.033001514607426</v>
+        <v>3.624494731803721</v>
       </c>
       <c r="E8">
-        <v>23.62144099109816</v>
+        <v>21.19214734077627</v>
       </c>
       <c r="F8">
-        <v>33.51798786876724</v>
+        <v>26.3371889843387</v>
       </c>
       <c r="G8">
-        <v>52.00698460409991</v>
+        <v>34.89993675576319</v>
       </c>
       <c r="H8">
-        <v>13.27141754552187</v>
+        <v>14.11298401775975</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>11.97049166515916</v>
+        <v>9.650699783077265</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>13.44451416537939</v>
+        <v>18.36593301912894</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.53738615266375</v>
+        <v>17.99988663938552</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>2.283433485992905</v>
+        <v>3.57576768149265</v>
       </c>
       <c r="E9">
-        <v>26.11230155135103</v>
+        <v>22.02827285113365</v>
       </c>
       <c r="F9">
-        <v>39.38616844583622</v>
+        <v>27.86157884649637</v>
       </c>
       <c r="G9">
-        <v>61.17344249718732</v>
+        <v>38.01762916070555</v>
       </c>
       <c r="H9">
-        <v>15.22823793432167</v>
+        <v>14.39343708729317</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>13.82998671189192</v>
+        <v>10.16259257623941</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>13.30104921000771</v>
+        <v>18.28454953644862</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.41909951844292</v>
+        <v>18.49397078989283</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>2.532469973165643</v>
+        <v>3.544737182346143</v>
       </c>
       <c r="E10">
-        <v>27.84302410493292</v>
+        <v>22.61776999733273</v>
       </c>
       <c r="F10">
-        <v>43.44590373586735</v>
+        <v>28.97961510577293</v>
       </c>
       <c r="G10">
-        <v>67.5231241729837</v>
+        <v>40.21980668787677</v>
       </c>
       <c r="H10">
-        <v>16.79521566043325</v>
+        <v>14.619051346902</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>15.08075238556438</v>
+        <v>10.53071924509348</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>13.22212368469009</v>
+        <v>18.23656591456094</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.25632142364662</v>
+        <v>18.71800379862541</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>2.645636898885877</v>
+        <v>3.531674342192471</v>
       </c>
       <c r="E11">
-        <v>28.60979514253082</v>
+        <v>22.87983256441795</v>
       </c>
       <c r="F11">
-        <v>45.24493735198589</v>
+        <v>29.48507131629066</v>
       </c>
       <c r="G11">
-        <v>70.3391911091352</v>
+        <v>41.19730706587404</v>
       </c>
       <c r="H11">
-        <v>17.49107199269253</v>
+        <v>14.72559102555798</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>15.62612050235076</v>
+        <v>10.69569538119662</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>13.19227308942477</v>
+        <v>18.21728713178598</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.56808510539562</v>
+        <v>18.80265500337532</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>2.688565718848694</v>
+        <v>3.526880815101983</v>
       </c>
       <c r="E12">
-        <v>28.89736188963175</v>
+        <v>22.9781340825802</v>
       </c>
       <c r="F12">
-        <v>45.9200328744374</v>
+        <v>29.67581012071376</v>
       </c>
       <c r="G12">
-        <v>71.39630448540916</v>
+        <v>41.56360608996415</v>
       </c>
       <c r="H12">
-        <v>17.75241068964024</v>
+        <v>14.76646528513221</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>15.82938278855295</v>
+        <v>10.75775115469736</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>13.18186543331992</v>
+        <v>18.21035215431987</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.50117301489337</v>
+        <v>18.78443334060206</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>2.679315257722882</v>
+        <v>3.527906351412534</v>
       </c>
       <c r="E13">
-        <v>28.83555011631305</v>
+        <v>22.95700561131616</v>
       </c>
       <c r="F13">
-        <v>45.77490016291185</v>
+        <v>29.63476401593389</v>
       </c>
       <c r="G13">
-        <v>71.16902787643021</v>
+        <v>41.48489405980207</v>
       </c>
       <c r="H13">
-        <v>17.696218140097</v>
+        <v>14.7576392282515</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>15.78574902338617</v>
+        <v>10.74440579089444</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>13.18406664462574</v>
+        <v>18.21182948862228</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.28207512151936</v>
+        <v>18.72497226722938</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>2.64916659212503</v>
+        <v>3.531276898075168</v>
       </c>
       <c r="E14">
-        <v>28.63350822395661</v>
+        <v>22.88793896908948</v>
       </c>
       <c r="F14">
-        <v>45.30059676485514</v>
+        <v>29.50077804913079</v>
       </c>
       <c r="G14">
-        <v>70.42633889884073</v>
+        <v>41.22752199777454</v>
       </c>
       <c r="H14">
-        <v>17.51261414627084</v>
+        <v>14.72894333966051</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>15.64290741229058</v>
+        <v>10.70080943362307</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>13.19139873869822</v>
+        <v>18.21670926860233</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.14718957627729</v>
+        <v>18.68852418061056</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>2.630712429798798</v>
+        <v>3.533361441692601</v>
       </c>
       <c r="E15">
-        <v>28.50939403350604</v>
+        <v>22.84551009819628</v>
       </c>
       <c r="F15">
-        <v>45.0092934502868</v>
+        <v>29.41861485024073</v>
       </c>
       <c r="G15">
-        <v>69.97025097531008</v>
+        <v>41.0693614537312</v>
       </c>
       <c r="H15">
-        <v>17.39987826921675</v>
+        <v>14.7114343376612</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>15.55499315439594</v>
+        <v>10.6740493858305</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>13.19600732132636</v>
+        <v>18.21974583813368</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.36363797832109</v>
+        <v>18.47930810320779</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>2.525079368138189</v>
+        <v>3.545612200659567</v>
       </c>
       <c r="E16">
-        <v>27.79251261729032</v>
+        <v>22.60051573370339</v>
       </c>
       <c r="F16">
-        <v>43.32742910440396</v>
+        <v>28.94650045041221</v>
       </c>
       <c r="G16">
-        <v>67.33772306592307</v>
+        <v>40.15540369573948</v>
       </c>
       <c r="H16">
-        <v>16.74942042646778</v>
+        <v>14.61216465084332</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>15.04464752891014</v>
+        <v>10.51988245147211</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>13.22419848951465</v>
+        <v>18.2378770318469</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.87338566903359</v>
+        <v>18.35071610086202</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>2.460307013072045</v>
+        <v>3.553398525432224</v>
       </c>
       <c r="E17">
-        <v>27.347560310915</v>
+        <v>22.44861410225671</v>
       </c>
       <c r="F17">
-        <v>42.28388962785806</v>
+        <v>28.6559114612869</v>
       </c>
       <c r="G17">
-        <v>65.70494868258578</v>
+        <v>39.58822535447778</v>
       </c>
       <c r="H17">
-        <v>16.34621632464608</v>
+        <v>14.5522442752849</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>14.72561149956006</v>
+        <v>10.42462556248779</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>13.24306144119378</v>
+        <v>18.24965207262473</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.58784038592538</v>
+        <v>18.27668947410992</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>2.423033932105183</v>
+        <v>3.557976032995103</v>
       </c>
       <c r="E18">
-        <v>27.08968814472211</v>
+        <v>22.36067318568414</v>
       </c>
       <c r="F18">
-        <v>41.67912783289998</v>
+        <v>28.48848841083182</v>
       </c>
       <c r="G18">
-        <v>64.75892124848851</v>
+        <v>39.25973292329319</v>
       </c>
       <c r="H18">
-        <v>16.11268715980226</v>
+        <v>14.51814935615872</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>14.53987849907684</v>
+        <v>10.36960559166773</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>13.25447909781624</v>
+        <v>18.25666477471776</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.49054302014637</v>
+        <v>18.25161685312981</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>2.410408286875318</v>
+        <v>3.559542855575599</v>
       </c>
       <c r="E19">
-        <v>27.00203881790832</v>
+        <v>22.33080164119405</v>
       </c>
       <c r="F19">
-        <v>41.4735657628214</v>
+        <v>28.43175982823179</v>
       </c>
       <c r="G19">
-        <v>64.43739628549928</v>
+        <v>39.14813370235309</v>
       </c>
       <c r="H19">
-        <v>16.0333330786806</v>
+        <v>14.50666984619826</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>14.47660528564846</v>
+        <v>10.35093902568889</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>13.25844172474034</v>
+        <v>18.25908041010615</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.92594179465758</v>
+        <v>18.36441214553465</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>2.467203354996579</v>
+        <v>3.552559397923392</v>
       </c>
       <c r="E20">
-        <v>27.39512684365597</v>
+        <v>22.46484383101083</v>
       </c>
       <c r="F20">
-        <v>42.39544192153627</v>
+        <v>28.68687613924354</v>
       </c>
       <c r="G20">
-        <v>65.8794666837376</v>
+        <v>39.64883983067777</v>
       </c>
       <c r="H20">
-        <v>16.38930362312465</v>
+        <v>14.55858486582059</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>14.75980348857717</v>
+        <v>10.43479014418923</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>13.240994456678</v>
+        <v>18.24837376717323</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.34657124543275</v>
+        <v>18.74244308003841</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>2.658019138484672</v>
+        <v>3.530282718624272</v>
       </c>
       <c r="E21">
-        <v>28.69292697874828</v>
+        <v>22.90825136526601</v>
       </c>
       <c r="F21">
-        <v>45.44007200827275</v>
+        <v>29.54015270423292</v>
       </c>
       <c r="G21">
-        <v>70.64472601263827</v>
+        <v>41.30322585670271</v>
       </c>
       <c r="H21">
-        <v>17.56659944076592</v>
+        <v>14.73735789269243</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>15.68495063137056</v>
+        <v>10.71362651583321</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>13.18922059994645</v>
+        <v>18.2152660487424</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>24.24438543356819</v>
+        <v>18.98839326292216</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>2.783219862090558</v>
+        <v>3.516616735575172</v>
       </c>
       <c r="E22">
-        <v>29.52496399200072</v>
+        <v>23.19256390649916</v>
       </c>
       <c r="F22">
-        <v>47.39444293339439</v>
+        <v>30.09384381669164</v>
       </c>
       <c r="G22">
-        <v>73.70576197999851</v>
+        <v>42.36182882161684</v>
       </c>
       <c r="H22">
-        <v>18.32356863268754</v>
+        <v>14.85727012779053</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>16.27068546296388</v>
+        <v>10.89340614045731</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>13.16061844724621</v>
+        <v>18.19575801225414</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.76795087822471</v>
+        <v>18.85725285576845</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>2.716318180262423</v>
+        <v>3.523828247088102</v>
       </c>
       <c r="E23">
-        <v>29.08229545661161</v>
+        <v>23.04134082658567</v>
       </c>
       <c r="F23">
-        <v>46.35433311284301</v>
+        <v>29.79875935841615</v>
       </c>
       <c r="G23">
-        <v>72.07647200253355</v>
+        <v>41.79901360710332</v>
       </c>
       <c r="H23">
-        <v>17.92059464865425</v>
+        <v>14.79300024502186</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>15.95974566456591</v>
+        <v>10.79769775532421</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>13.17539648687719</v>
+        <v>18.20597531041334</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.90219268363934</v>
+        <v>18.35822046089093</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>2.464085633301853</v>
+        <v>3.552938452859542</v>
       </c>
       <c r="E24">
-        <v>27.373628451618</v>
+        <v>22.45750826820518</v>
       </c>
       <c r="F24">
-        <v>42.34502418528683</v>
+        <v>28.67287811190198</v>
       </c>
       <c r="G24">
-        <v>65.8005899906951</v>
+        <v>39.62144351684409</v>
       </c>
       <c r="H24">
-        <v>16.36982923826146</v>
+        <v>14.55571717949215</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>14.74435251102005</v>
+        <v>10.43019552811799</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>13.24192715728034</v>
+        <v>18.24895093186304</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.86862202785429</v>
+        <v>17.81783782187338</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>2.191078902239645</v>
+        <v>3.588118064661787</v>
       </c>
       <c r="E25">
-        <v>25.45603362883645</v>
+        <v>21.80617733342847</v>
       </c>
       <c r="F25">
-        <v>37.84478432410322</v>
+        <v>27.44855915166089</v>
       </c>
       <c r="G25">
-        <v>58.76440360024107</v>
+        <v>37.1878278147259</v>
       </c>
       <c r="H25">
-        <v>14.63461713076051</v>
+        <v>14.31401873849287</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>13.34763477276877</v>
+        <v>10.02523818474811</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>13.33531177415716</v>
+        <v>18.30448743018961</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_135/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_135/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.42115441905784</v>
+        <v>18.34869518415827</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>3.617217011492461</v>
+        <v>2.026231400508413</v>
       </c>
       <c r="E2">
-        <v>21.31025839262848</v>
+        <v>23.97713299713372</v>
       </c>
       <c r="F2">
-        <v>26.54696424668288</v>
+        <v>34.35979171545815</v>
       </c>
       <c r="G2">
-        <v>35.33876624063006</v>
+        <v>53.32112446970474</v>
       </c>
       <c r="H2">
-        <v>14.14935312997983</v>
+        <v>13.52210203374834</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>9.722047170405057</v>
+        <v>12.2411950274624</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>18.35331766152228</v>
+        <v>13.42173851066001</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.15464674316502</v>
+        <v>17.26488528994191</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>3.638905553447395</v>
+        <v>2.048743173563861</v>
       </c>
       <c r="E3">
-        <v>20.96518470046526</v>
+        <v>22.93337218447505</v>
       </c>
       <c r="F3">
-        <v>25.94044271306036</v>
+        <v>31.92008146897835</v>
       </c>
       <c r="G3">
-        <v>34.0595019567597</v>
+        <v>49.45675784604758</v>
       </c>
       <c r="H3">
-        <v>14.04652690696389</v>
+        <v>12.79282307177283</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>9.514730164091405</v>
+        <v>11.44097194777576</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>18.39138444783763</v>
+        <v>13.49088263455205</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.99269970616383</v>
+        <v>16.57382122317329</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>3.653184789612862</v>
+        <v>2.066991713543775</v>
       </c>
       <c r="E4">
-        <v>20.7493096422299</v>
+        <v>22.27261874852701</v>
       </c>
       <c r="F4">
-        <v>25.57186898515603</v>
+        <v>30.47014670369547</v>
       </c>
       <c r="G4">
-        <v>33.2648307640793</v>
+        <v>46.99511398197567</v>
       </c>
       <c r="H4">
-        <v>13.98785810561196</v>
+        <v>12.34169785803278</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>9.386990808304434</v>
+        <v>10.92435006066973</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>18.41721839459171</v>
+        <v>13.53840964612049</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.92721243692192</v>
+        <v>16.2859665899755</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>3.659244470587948</v>
+        <v>2.075425057421442</v>
       </c>
       <c r="E5">
-        <v>20.66040194806257</v>
+        <v>21.99850026528055</v>
       </c>
       <c r="F5">
-        <v>25.42288579484907</v>
+        <v>29.86908938720212</v>
       </c>
       <c r="G5">
-        <v>32.93929423936728</v>
+        <v>45.97471386071243</v>
       </c>
       <c r="H5">
-        <v>13.9650929322324</v>
+        <v>12.15717225365435</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>9.334896552120913</v>
+        <v>10.70741630769693</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>18.42836582764898</v>
+        <v>13.55903240572802</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.91637137966361</v>
+        <v>16.23779857071311</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>3.660265183277748</v>
+        <v>2.076882434679386</v>
       </c>
       <c r="E6">
-        <v>20.64558435290623</v>
+        <v>21.9526949125328</v>
       </c>
       <c r="F6">
-        <v>25.39822789166722</v>
+        <v>29.76867637648831</v>
       </c>
       <c r="G6">
-        <v>32.88515516649034</v>
+        <v>45.8068692864159</v>
       </c>
       <c r="H6">
-        <v>13.96138234281857</v>
+        <v>12.12649571356369</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>9.326246120286182</v>
+        <v>10.67100654433455</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>18.43025432241594</v>
+        <v>13.56253202707426</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.99181435855889</v>
+        <v>16.56996407826815</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>3.653265539315245</v>
+        <v>2.067101557521979</v>
       </c>
       <c r="E7">
-        <v>20.74811430300517</v>
+        <v>22.26894132908727</v>
       </c>
       <c r="F7">
-        <v>25.56985450032118</v>
+        <v>30.46208158381101</v>
       </c>
       <c r="G7">
-        <v>33.26044651164005</v>
+        <v>46.98137272224231</v>
       </c>
       <c r="H7">
-        <v>13.98754643524373</v>
+        <v>12.33921183230201</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>9.386288309193084</v>
+        <v>10.92145040930152</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>18.41736622143781</v>
+        <v>13.53868271616494</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.32896147093782</v>
+        <v>17.98041117702264</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>3.624494731803721</v>
+        <v>2.033001514607438</v>
       </c>
       <c r="E8">
-        <v>21.19214734077627</v>
+        <v>23.62144099109836</v>
       </c>
       <c r="F8">
-        <v>26.3371889843387</v>
+        <v>33.51798786876731</v>
       </c>
       <c r="G8">
-        <v>34.89993675576319</v>
+        <v>52.0069846041</v>
       </c>
       <c r="H8">
-        <v>14.11298401775975</v>
+        <v>13.27141754552186</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>9.650699783077265</v>
+        <v>11.97049166515919</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>18.36593301912894</v>
+        <v>13.44451416537942</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.99988663938552</v>
+        <v>20.53738615266372</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>3.57576768149265</v>
+        <v>2.283433485992856</v>
       </c>
       <c r="E9">
-        <v>22.02827285113365</v>
+        <v>26.11230155135105</v>
       </c>
       <c r="F9">
-        <v>27.86157884649637</v>
+        <v>39.38616844583608</v>
       </c>
       <c r="G9">
-        <v>38.01762916070555</v>
+        <v>61.17344249718718</v>
       </c>
       <c r="H9">
-        <v>14.39343708729317</v>
+        <v>15.22823793432163</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>10.16259257623941</v>
+        <v>13.82998671189187</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>18.28454953644862</v>
+        <v>13.3010492100078</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>18.49397078989283</v>
+        <v>22.41909951844294</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>3.544737182346143</v>
+        <v>2.532469973165582</v>
       </c>
       <c r="E10">
-        <v>22.61776999733273</v>
+        <v>27.84302410493304</v>
       </c>
       <c r="F10">
-        <v>28.97961510577293</v>
+        <v>43.44590373586742</v>
       </c>
       <c r="G10">
-        <v>40.21980668787677</v>
+        <v>67.52312417298388</v>
       </c>
       <c r="H10">
-        <v>14.619051346902</v>
+        <v>16.79521566043328</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>10.53071924509348</v>
+        <v>15.08075238556439</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>18.23656591456094</v>
+        <v>13.2221236846901</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.71800379862541</v>
+        <v>23.25632142364654</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>3.531674342192471</v>
+        <v>2.645636898885713</v>
       </c>
       <c r="E11">
-        <v>22.87983256441795</v>
+        <v>28.60979514253099</v>
       </c>
       <c r="F11">
-        <v>29.48507131629066</v>
+        <v>45.24493735198588</v>
       </c>
       <c r="G11">
-        <v>41.19730706587404</v>
+        <v>70.33919110913513</v>
       </c>
       <c r="H11">
-        <v>14.72559102555798</v>
+        <v>17.49107199269253</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>10.69569538119662</v>
+        <v>15.62612050235077</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>18.21728713178598</v>
+        <v>13.1922730894248</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.80265500337532</v>
+        <v>23.56808510539565</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>3.526880815101983</v>
+        <v>2.688565718848634</v>
       </c>
       <c r="E12">
-        <v>22.9781340825802</v>
+        <v>28.89736188963169</v>
       </c>
       <c r="F12">
-        <v>29.67581012071376</v>
+        <v>45.9200328744374</v>
       </c>
       <c r="G12">
-        <v>41.56360608996415</v>
+        <v>71.39630448540915</v>
       </c>
       <c r="H12">
-        <v>14.76646528513221</v>
+        <v>17.75241068964022</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>10.75775115469736</v>
+        <v>15.82938278855298</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>18.21035215431987</v>
+        <v>13.18186543331992</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.78443334060206</v>
+        <v>23.50117301489336</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>3.527906351412534</v>
+        <v>2.679315257722883</v>
       </c>
       <c r="E13">
-        <v>22.95700561131616</v>
+        <v>28.8355501163131</v>
       </c>
       <c r="F13">
-        <v>29.63476401593389</v>
+        <v>45.7749001629119</v>
       </c>
       <c r="G13">
-        <v>41.48489405980207</v>
+        <v>71.16902787643036</v>
       </c>
       <c r="H13">
-        <v>14.7576392282515</v>
+        <v>17.69621814009703</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>10.74440579089444</v>
+        <v>15.78574902338618</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>18.21182948862228</v>
+        <v>13.18406664462569</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.72497226722938</v>
+        <v>23.28207512151938</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>3.531276898075168</v>
+        <v>2.649166592125084</v>
       </c>
       <c r="E14">
-        <v>22.88793896908948</v>
+        <v>28.63350822395659</v>
       </c>
       <c r="F14">
-        <v>29.50077804913079</v>
+        <v>45.30059676485511</v>
       </c>
       <c r="G14">
-        <v>41.22752199777454</v>
+        <v>70.42633889884075</v>
       </c>
       <c r="H14">
-        <v>14.72894333966051</v>
+        <v>17.51261414627082</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>10.70080943362307</v>
+        <v>15.64290741229055</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>18.21670926860233</v>
+        <v>13.19139873869823</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.68852418061056</v>
+        <v>23.14718957627727</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>3.533361441692601</v>
+        <v>2.630712429798853</v>
       </c>
       <c r="E15">
-        <v>22.84551009819628</v>
+        <v>28.50939403350615</v>
       </c>
       <c r="F15">
-        <v>29.41861485024073</v>
+        <v>45.0092934502868</v>
       </c>
       <c r="G15">
-        <v>41.0693614537312</v>
+        <v>69.97025097531008</v>
       </c>
       <c r="H15">
-        <v>14.7114343376612</v>
+        <v>17.39987826921674</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>10.6740493858305</v>
+        <v>15.55499315439592</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>18.21974583813368</v>
+        <v>13.19600732132642</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>18.47930810320779</v>
+        <v>22.36363797832112</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>3.545612200659567</v>
+        <v>2.525079368138198</v>
       </c>
       <c r="E16">
-        <v>22.60051573370339</v>
+        <v>27.7925126172903</v>
       </c>
       <c r="F16">
-        <v>28.94650045041221</v>
+        <v>43.32742910440402</v>
       </c>
       <c r="G16">
-        <v>40.15540369573948</v>
+        <v>67.33772306592314</v>
       </c>
       <c r="H16">
-        <v>14.61216465084332</v>
+        <v>16.74942042646782</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>10.51988245147211</v>
+        <v>15.04464752891013</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>18.2378770318469</v>
+        <v>13.2241984895146</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>18.35071610086202</v>
+        <v>21.87338566903356</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>3.553398525432224</v>
+        <v>2.460307013072036</v>
       </c>
       <c r="E17">
-        <v>22.44861410225671</v>
+        <v>27.34756031091485</v>
       </c>
       <c r="F17">
-        <v>28.6559114612869</v>
+        <v>42.28388962785799</v>
       </c>
       <c r="G17">
-        <v>39.58822535447778</v>
+        <v>65.70494868258565</v>
       </c>
       <c r="H17">
-        <v>14.5522442752849</v>
+        <v>16.34621632464603</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>10.42462556248779</v>
+        <v>14.72561149956004</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>18.24965207262473</v>
+        <v>13.24306144119378</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>18.27668947410992</v>
+        <v>21.58784038592539</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>3.557976032995103</v>
+        <v>2.423033932105075</v>
       </c>
       <c r="E18">
-        <v>22.36067318568414</v>
+        <v>27.08968814472198</v>
       </c>
       <c r="F18">
-        <v>28.48848841083182</v>
+        <v>41.67912783289999</v>
       </c>
       <c r="G18">
-        <v>39.25973292329319</v>
+        <v>64.75892124848855</v>
       </c>
       <c r="H18">
-        <v>14.51814935615872</v>
+        <v>16.11268715980226</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>10.36960559166773</v>
+        <v>14.53987849907682</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>18.25666477471776</v>
+        <v>13.25447909781616</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>18.25161685312981</v>
+        <v>21.49054302014636</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>3.559542855575599</v>
+        <v>2.410408286875245</v>
       </c>
       <c r="E19">
-        <v>22.33080164119405</v>
+        <v>27.00203881790829</v>
       </c>
       <c r="F19">
-        <v>28.43175982823179</v>
+        <v>41.47356576282149</v>
       </c>
       <c r="G19">
-        <v>39.14813370235309</v>
+        <v>64.43739628549932</v>
       </c>
       <c r="H19">
-        <v>14.50666984619826</v>
+        <v>16.03333307868064</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>10.35093902568889</v>
+        <v>14.47660528564848</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>18.25908041010615</v>
+        <v>13.25844172474031</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18.36441214553465</v>
+        <v>21.92594179465758</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>3.552559397923392</v>
+        <v>2.467203354996456</v>
       </c>
       <c r="E20">
-        <v>22.46484383101083</v>
+        <v>27.395126843656</v>
       </c>
       <c r="F20">
-        <v>28.68687613924354</v>
+        <v>42.39544192153639</v>
       </c>
       <c r="G20">
-        <v>39.64883983067777</v>
+        <v>65.87946668373776</v>
       </c>
       <c r="H20">
-        <v>14.55858486582059</v>
+        <v>16.38930362312467</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>10.43479014418923</v>
+        <v>14.75980348857718</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>18.24837376717323</v>
+        <v>13.24099445667797</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.74244308003841</v>
+        <v>23.34657124543275</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>3.530282718624272</v>
+        <v>2.658019138484627</v>
       </c>
       <c r="E21">
-        <v>22.90825136526601</v>
+        <v>28.69292697874821</v>
       </c>
       <c r="F21">
-        <v>29.54015270423292</v>
+        <v>45.44007200827265</v>
       </c>
       <c r="G21">
-        <v>41.30322585670271</v>
+        <v>70.64472601263815</v>
       </c>
       <c r="H21">
-        <v>14.73735789269243</v>
+        <v>17.56659944076588</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>10.71362651583321</v>
+        <v>15.68495063137052</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>18.2152660487424</v>
+        <v>13.18922059994645</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.98839326292216</v>
+        <v>24.24438543356826</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>3.516616735575172</v>
+        <v>2.783219862090544</v>
       </c>
       <c r="E22">
-        <v>23.19256390649916</v>
+        <v>29.52496399200066</v>
       </c>
       <c r="F22">
-        <v>30.09384381669164</v>
+        <v>47.39444293339449</v>
       </c>
       <c r="G22">
-        <v>42.36182882161684</v>
+        <v>73.70576197999858</v>
       </c>
       <c r="H22">
-        <v>14.85727012779053</v>
+        <v>18.32356863268762</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>10.89340614045731</v>
+        <v>16.27068546296388</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>18.19575801225414</v>
+        <v>13.16061844724614</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.85725285576845</v>
+        <v>23.76795087822471</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>3.523828247088102</v>
+        <v>2.716318180262359</v>
       </c>
       <c r="E23">
-        <v>23.04134082658567</v>
+        <v>29.0822954566117</v>
       </c>
       <c r="F23">
-        <v>29.79875935841615</v>
+        <v>46.35433311284304</v>
       </c>
       <c r="G23">
-        <v>41.79901360710332</v>
+        <v>72.07647200253355</v>
       </c>
       <c r="H23">
-        <v>14.79300024502186</v>
+        <v>17.92059464865429</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>10.79769775532421</v>
+        <v>15.95974566456587</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>18.20597531041334</v>
+        <v>13.17539648687721</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>18.35822046089093</v>
+        <v>21.90219268363934</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>3.552938452859542</v>
+        <v>2.464085633301784</v>
       </c>
       <c r="E24">
-        <v>22.45750826820518</v>
+        <v>27.37362845161813</v>
       </c>
       <c r="F24">
-        <v>28.67287811190198</v>
+        <v>42.3450241852869</v>
       </c>
       <c r="G24">
-        <v>39.62144351684409</v>
+        <v>65.80058999069513</v>
       </c>
       <c r="H24">
-        <v>14.55571717949215</v>
+        <v>16.3698292382615</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>10.43019552811799</v>
+        <v>14.74435251102006</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>18.24895093186304</v>
+        <v>13.24192715728035</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>17.81783782187338</v>
+        <v>19.86862202785429</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>3.588118064661787</v>
+        <v>2.191078902239635</v>
       </c>
       <c r="E25">
-        <v>21.80617733342847</v>
+        <v>25.45603362883651</v>
       </c>
       <c r="F25">
-        <v>27.44855915166089</v>
+        <v>37.84478432410327</v>
       </c>
       <c r="G25">
-        <v>37.1878278147259</v>
+        <v>58.76440360024111</v>
       </c>
       <c r="H25">
-        <v>14.31401873849287</v>
+        <v>14.63461713076052</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>10.02523818474811</v>
+        <v>13.34763477276874</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>18.30448743018961</v>
+        <v>13.3353117741571</v>
       </c>
       <c r="O25">
         <v>0</v>
